--- a/biology/Histoire de la zoologie et de la botanique/Mikhaïl_Fedonkine/Mikhaïl_Fedonkine.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Mikhaïl_Fedonkine/Mikhaïl_Fedonkine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mikha%C3%AFl_Fedonkine</t>
+          <t>Mikhaïl_Fedonkine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mikhaïl Aleksandrovitch Fedonkine (en russe : Михаи́л Алекса́ндрович Федо́нкин) est un paléontologue russe né le 19 juin 1946 à Orekhovo-Zouïevo, dans l'oblast de Moscou en Russie.
 Il est célèbre pour ses travaux sur les formes fossiles primitives et leurs traces (paléoichnologie) en particulier dans les sédiments de la dernière période du Protérozoïque, l'Édiacarien.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mikha%C3%AFl_Fedonkine</t>
+          <t>Mikhaïl_Fedonkine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fedonkine a soutenu en 1969 son master en géologie à l'Université d'État de Moscou avec pour sujet : « Biostratigraphie et paléontologie des sédiments du Précambrien supérieur des monts Kharaulakh dans le nord de la République de Sakha (Yakoutie) ».
 Nommé chercheur à l'institut de géologie de l'Académie des sciences de Russie à Moscou, il obtient en 1978 un doctorat en stratigraphie et paléontologie sur « Les faunes et traces fossiles du Précambrien de la bordure nord de la plateforme russe », puis en 1985 un autre doctorat en paléobiologie sur « Les faunes dépourvues de squelette du Vendien et leur place dans l'évolution des métazoaires ».
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mikha%C3%AFl_Fedonkine</t>
+          <t>Mikhaïl_Fedonkine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +561,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Livres
-1981. White Sea Biota of the Vendian (Precambrian non-skeletal fauna of the Russian Platform north). Transactions of the Geological Institute, vol. 342. Moscow, Nauka, p. 1-100 (en russe).
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1981. White Sea Biota of the Vendian (Precambrian non-skeletal fauna of the Russian Platform north). Transactions of the Geological Institute, vol. 342. Moscow, Nauka, p. 1-100 (en russe).
 1983. Organic World of the Vendian. Moscow, VINITI, p. 1-128 (en russe).
-1987. Non-skeletal Fauna and Its Place in the Evolution of Metazoans. Transactions of the Paleontological Institute, vol. 226. Moscow, Nauka, p. 1-176 (en russe).
-Publications scientifiques
-Fedonkin M.A. 1976. Traces of the multicellullar animals from Valdai Series. Izvestiya Akademii Nauk SSSR, ser. geol., N 4, p. 128-132 (en russe).
+1987. Non-skeletal Fauna and Its Place in the Evolution of Metazoans. Transactions of the Paleontological Institute, vol. 226. Moscow, Nauka, p. 1-176 (en russe).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mikhaïl_Fedonkine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mikha%C3%AFl_Fedonkine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sélection de publications (titres anglais)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publications scientifiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fedonkin M.A. 1976. Traces of the multicellullar animals from Valdai Series. Izvestiya Akademii Nauk SSSR, ser. geol., N 4, p. 128-132 (en russe).
 Keller B.M. &amp; Fedonkin M.A. 1977. New organic fossil finds in the Precambrian Valdai Series along the Syuz'ma River. Internat. Geol. Rev., 19(8), p. 924-930.
 Fedonkin M.A. 1980. Early stages of evolution of Metazoa on the basis of the paleoichnological data. Zhurnal Obchei Biologii, N 2, p. 226-233.
 Fedonkin, M.A. 1990. Precambrian metazoans. In: Briggs, D.E.G. &amp; Crowther, P.R., eds., Palaeobiology. A Synthesis. Blackwell Scientific Publ. Ltd., p. 17-24.
